--- a/File/MainSheet.xlsx
+++ b/File/MainSheet.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
-    <x:t>STT</x:t>
+    <x:t>ID</x:t>
   </x:si>
   <x:si>
     <x:t>Họ và Tên</x:t>
